--- a/recursive.xlsx
+++ b/recursive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shirishbahirat/Documents/code/algo/algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F2784A-5618-5244-92ED-42EB2827C05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E62C10D-F81F-B149-BB08-A78F83F082FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3380" yWindow="600" windowWidth="28800" windowHeight="16020" xr2:uid="{BFAD46BF-FF82-0044-BB44-B5750FD31961}"/>
   </bookViews>
@@ -84,9 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777BBA04-9DC3-1B43-AC1A-5D42AB29F800}">
   <dimension ref="A35:AQ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="AN69" sqref="AN69:AQ69"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1318,7 +1319,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="29:43" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:43" x14ac:dyDescent="0.2">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+    </row>
+    <row r="66" spans="4:43" x14ac:dyDescent="0.2">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
       <c r="AC66" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1358,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="29:43" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:43" x14ac:dyDescent="0.2">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
       <c r="AF67" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1403,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="29:43" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:43" x14ac:dyDescent="0.2">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
       <c r="AN68" t="s">
         <v>2</v>
       </c>
@@ -1375,7 +1430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="29:43" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:43" x14ac:dyDescent="0.2">
       <c r="AN69" t="s">
         <v>2</v>
       </c>

--- a/recursive.xlsx
+++ b/recursive.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shirishbahirat/Documents/code/algo/algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E62C10D-F81F-B149-BB08-A78F83F082FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF91B906-B153-024C-BFD7-62EAA04F6246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="600" windowWidth="28800" windowHeight="16020" xr2:uid="{BFAD46BF-FF82-0044-BB44-B5750FD31961}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{BFAD46BF-FF82-0044-BB44-B5750FD31961}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="10">
   <si>
     <t>mrg</t>
   </si>
@@ -43,6 +44,18 @@
   </si>
   <si>
     <t>ret</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>sing on</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>one time</t>
   </si>
 </sst>
 </file>
@@ -404,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777BBA04-9DC3-1B43-AC1A-5D42AB29F800}">
   <dimension ref="A35:AQ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1447,4 +1460,233 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B311109-A3E3-EF4F-A779-2EBC5C94F9FB}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>200</v>
+      </c>
+      <c r="D1">
+        <v>200</v>
+      </c>
+      <c r="E1">
+        <v>200</v>
+      </c>
+      <c r="F1">
+        <v>200</v>
+      </c>
+      <c r="H1">
+        <f>SUM(C1:F1)</f>
+        <v>800</v>
+      </c>
+      <c r="I1">
+        <f>H1*2</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>285</v>
+      </c>
+      <c r="C2">
+        <v>285</v>
+      </c>
+      <c r="D2">
+        <v>285</v>
+      </c>
+      <c r="E2">
+        <v>285</v>
+      </c>
+      <c r="F2">
+        <v>285</v>
+      </c>
+      <c r="H2">
+        <f>SUM(B2:F2)</f>
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <f>B3+C3</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <f>SUM(H1:H3)+SUM(D4:F4)</f>
+        <v>2455</v>
+      </c>
+      <c r="I4">
+        <f>H4+H1</f>
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>217</v>
+      </c>
+      <c r="C6">
+        <v>217</v>
+      </c>
+      <c r="D6">
+        <v>217</v>
+      </c>
+      <c r="E6">
+        <v>217</v>
+      </c>
+      <c r="F6">
+        <v>217</v>
+      </c>
+      <c r="H6">
+        <f>SUM(B6:F6)</f>
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f>57+14</f>
+        <v>71</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:F7" si="0">57+14</f>
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="H7">
+        <f>SUM(B7:F7)</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>68</v>
+      </c>
+      <c r="H8">
+        <f>SUM(B8:F8)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>51.8</v>
+      </c>
+      <c r="D9">
+        <v>51.8</v>
+      </c>
+      <c r="E9">
+        <v>51.8</v>
+      </c>
+      <c r="F9">
+        <v>51.8</v>
+      </c>
+      <c r="H9">
+        <f>SUM(B9:F9)</f>
+        <v>207.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <f>SUM(H6:H9)</f>
+        <v>1715.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f>B6+B7</f>
+        <v>288</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:F11" si="1">C6+C7</f>
+        <v>288</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f>H12/5</f>
+        <v>147.95999999999998</v>
+      </c>
+      <c r="H12">
+        <f>H4-H10</f>
+        <v>739.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f>B2+B3</f>
+        <v>330</v>
+      </c>
+      <c r="C13">
+        <f>C2+C3</f>
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/recursive.xlsx
+++ b/recursive.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shirishbahirat/Documents/code/algo/algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF91B906-B153-024C-BFD7-62EAA04F6246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AA382A-B354-2B48-A05D-7D7CE062A87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{BFAD46BF-FF82-0044-BB44-B5750FD31961}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="2" xr2:uid="{BFAD46BF-FF82-0044-BB44-B5750FD31961}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
   <si>
     <t>mrg</t>
   </si>
@@ -56,6 +57,57 @@
   </si>
   <si>
     <t>one time</t>
+  </si>
+  <si>
+    <t>Tp</t>
+  </si>
+  <si>
+    <t>QLC</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>HDD</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Optane</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>y*1.5</t>
+  </si>
+  <si>
+    <t>x*..07</t>
+  </si>
+  <si>
+    <t>TLC cost for x capacity</t>
+  </si>
+  <si>
+    <t>TLC WA</t>
+  </si>
+  <si>
+    <t>Equivivalent QLC WA</t>
+  </si>
+  <si>
+    <t>TLC</t>
+  </si>
+  <si>
+    <t>x*(0.11*1.1)</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>1TB</t>
   </si>
 </sst>
 </file>
@@ -97,10 +149,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777BBA04-9DC3-1B43-AC1A-5D42AB29F800}">
   <dimension ref="A35:AQ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="T61" sqref="T61"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AM36" sqref="AM36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1689,4 +1742,230 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CB12C3-5A15-2E4B-B301-583AF170126B}">
+  <dimension ref="B4:J39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1650</v>
+      </c>
+      <c r="D5">
+        <v>85</v>
+      </c>
+      <c r="E5">
+        <v>0.08</v>
+      </c>
+      <c r="F5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>450</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>0.11</v>
+      </c>
+      <c r="F6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>9000</v>
+      </c>
+      <c r="D7">
+        <v>9000</v>
+      </c>
+      <c r="E7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f>200/1000</f>
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <f>100/1000</f>
+        <v>0.1</v>
+      </c>
+      <c r="E8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <f>(0.12-0.07)/1.5</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <f>33</f>
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f>B14/(C5/C6)</f>
+        <v>1.3636363636363638</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>